--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_6_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_6_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1045360.743283769</v>
+        <v>1080679.498609537</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.975891446</v>
+        <v>426806.9758914468</v>
       </c>
     </row>
     <row r="8">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>207.0368788505634</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>120.1832748619387</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>57.16776090941369</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>50.29171516770224</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -989,16 +989,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>9.923892307867391</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>85.72024486005427</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>175.0426595591497</v>
       </c>
       <c r="G8" t="n">
-        <v>96.13285199009043</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,10 +1180,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1214,16 +1214,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>103.6238122925896</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>85.22343841471893</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.005789270132</v>
+        <v>212.8972825095584</v>
       </c>
       <c r="H11" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
-        <v>42.82894522890792</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2418970482362</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1460,16 +1460,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>17.79417311172712</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>83.29896986725154</v>
       </c>
       <c r="H12" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>47.47529300550337</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>13.08993799274037</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>178.7908989556212</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>55.05559008913341</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S14" t="n">
         <v>179.4658614532381</v>
@@ -1663,13 +1663,13 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S15" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T15" t="n">
-        <v>104.4814346654897</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U15" t="n">
         <v>225.8957288909827</v>
@@ -1824,7 +1824,7 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
-        <v>13.08993799274038</v>
+        <v>13.08993799274016</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.299843795969</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>54.0358097072499</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1934,16 +1934,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405355</v>
+        <v>43.7515373661002</v>
       </c>
       <c r="S18" t="n">
         <v>158.7937537960548</v>
@@ -1979,7 +1979,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U18" t="n">
-        <v>164.1254863648505</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>47.23959131629373</v>
       </c>
       <c r="S19" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>88.64601283889637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,16 +2083,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>83.88973149922664</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>44.30336814410562</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2165,7 +2165,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>43.76331341951682</v>
+        <v>20.17002628298199</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S21" t="n">
         <v>158.7937537960548</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>81.02828297723634</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2872966473816</v>
+        <v>193.0311594038714</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,19 +2320,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>26.73110927253577</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.005789270132</v>
+        <v>232.9084973748806</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2408,13 +2408,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>52.1829371375707</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>65.43045686770213</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>13.08993799274016</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>7.811333944847629</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>237.8737619581955</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2645,16 +2645,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>52.1829371375707</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2693,10 +2693,10 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>220.5709423533581</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>5.340713598978091</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>153.178973682762</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>302.9285308722302</v>
       </c>
       <c r="G29" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>68.70995148086973</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2879,7 +2879,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -2891,7 +2891,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>57.07339698405355</v>
       </c>
       <c r="S30" t="n">
-        <v>158.7937537960548</v>
+        <v>126.9071062444599</v>
       </c>
       <c r="T30" t="n">
-        <v>91.08816241971709</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U30" t="n">
         <v>225.8957288909827</v>
@@ -3034,10 +3034,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>99.41270548100266</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
-        <v>34.1698288045615</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>13.08993799274015</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V34" t="n">
-        <v>13.08993799274016</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.005789270132</v>
+        <v>66.97079099303517</v>
       </c>
       <c r="H35" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>93.1931429687681</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>96.33154135226421</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3359,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>43.76331341951682</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>158.7937537960548</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2872966473816</v>
+        <v>193.1935513300316</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>47.47529300550314</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>259.0009803833314</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
-        <v>50.3435655308571</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3593,7 +3593,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>136.64958867533</v>
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>158.7937537960548</v>
+        <v>149.3102327444246</v>
       </c>
       <c r="T39" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>107.0403133273801</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>13.08993799274022</v>
+        <v>47.47529300550341</v>
       </c>
       <c r="U40" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>7.118653837780493</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,7 +3757,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
-        <v>71.43938761658742</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,10 +3821,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>85.67482303850645</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3833,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>14.31742697697815</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3942,13 +3942,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.3224937174977</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>42.72017884658705</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,13 +3979,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>166.1853597878145</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>51.25786032929783</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.07339698405354</v>
+        <v>44.8437521879864</v>
       </c>
       <c r="S45" t="n">
         <v>158.7937537960548</v>
@@ -4118,7 +4118,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
-        <v>47.23959131629395</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>73.91737409206868</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>255.9366034337592</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C2" t="n">
-        <v>255.9366034337592</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D2" t="n">
-        <v>255.9366034337592</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E2" t="n">
-        <v>255.9366034337592</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V2" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W2" t="n">
-        <v>499.3853800778592</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X2" t="n">
-        <v>255.9366034337592</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y2" t="n">
-        <v>255.9366034337592</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>817.1412885554689</v>
+        <v>842.6599081753446</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D3" t="n">
         <v>668.2068788942177</v>
@@ -4415,46 +4415,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>817.1412885554689</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>817.1412885554689</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>817.1412885554689</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>817.1412885554689</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>817.1412885554689</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>817.1412885554689</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>817.1412885554689</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104.5536560184564</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C5" t="n">
-        <v>104.5536560184564</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D5" t="n">
-        <v>104.5536560184564</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E5" t="n">
         <v>104.5536560184564</v>
       </c>
       <c r="F5" t="n">
-        <v>97.60815526925295</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>82.15084464790441</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>82.15084464790441</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4600,16 +4600,16 @@
         <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V5" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W5" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X5" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y5" t="n">
         <v>348.0024326625565</v>
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>852.8634924192114</v>
+        <v>877.4710495913895</v>
       </c>
       <c r="C6" t="n">
-        <v>678.4104631380844</v>
+        <v>703.0180203102625</v>
       </c>
       <c r="D6" t="n">
-        <v>529.4760534768332</v>
+        <v>554.0836106490112</v>
       </c>
       <c r="E6" t="n">
-        <v>370.2385984713777</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="F6" t="n">
-        <v>223.7040404982626</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4652,46 +4652,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M6" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>852.8634924192114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>852.8634924192114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>852.8634924192114</v>
+        <v>877.4710495913895</v>
       </c>
       <c r="X6" t="n">
-        <v>852.8634924192114</v>
+        <v>877.4710495913895</v>
       </c>
       <c r="Y6" t="n">
-        <v>852.8634924192114</v>
+        <v>877.4710495913895</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>591.4512093066566</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C8" t="n">
-        <v>348.0024326625565</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D8" t="n">
-        <v>348.0024326625565</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E8" t="n">
-        <v>348.0024326625565</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F8" t="n">
-        <v>341.056931913353</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>591.4512093066566</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y8" t="n">
-        <v>591.4512093066566</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>587.9903182850353</v>
+        <v>124.7057932302607</v>
       </c>
       <c r="C9" t="n">
-        <v>413.5372890039083</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>264.602879342657</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>105.3654243372015</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4892,16 +4892,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4916,19 +4916,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X9" t="n">
-        <v>756.2056553051034</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y9" t="n">
-        <v>756.2056553051034</v>
+        <v>292.9211302503287</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -4992,22 +4992,22 @@
         <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1636.530440628162</v>
+        <v>1482.679287035396</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.530440628162</v>
+        <v>1113.716770094984</v>
       </c>
       <c r="D11" t="n">
-        <v>1636.530440628162</v>
+        <v>755.4510714882335</v>
       </c>
       <c r="E11" t="n">
-        <v>1250.742188029918</v>
+        <v>755.4510714882335</v>
       </c>
       <c r="F11" t="n">
-        <v>839.7562832403103</v>
+        <v>755.4510714882335</v>
       </c>
       <c r="G11" t="n">
-        <v>421.568617310884</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H11" t="n">
-        <v>92.081313369844</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I11" t="n">
         <v>48.81975253256327</v>
@@ -5071,22 +5071,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T11" t="n">
-        <v>2221.37302195985</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U11" t="n">
-        <v>1967.593327971733</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="V11" t="n">
-        <v>1636.530440628162</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="W11" t="n">
-        <v>1636.530440628162</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="X11" t="n">
-        <v>1636.530440628162</v>
+        <v>1482.679287035396</v>
       </c>
       <c r="Y11" t="n">
-        <v>1636.530440628162</v>
+        <v>1482.679287035396</v>
       </c>
     </row>
     <row r="12">
@@ -5108,34 +5108,34 @@
         <v>239.5596775960993</v>
       </c>
       <c r="F12" t="n">
-        <v>221.5857653620315</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="G12" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I12" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>112.9860412505444</v>
+        <v>81.93751399838814</v>
       </c>
       <c r="K12" t="n">
-        <v>349.2772920404815</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L12" t="n">
-        <v>728.4044351658748</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M12" t="n">
-        <v>1222.807150561437</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N12" t="n">
-        <v>1746.002248079784</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O12" t="n">
-        <v>2158.207869599013</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P12" t="n">
         <v>2440.987626628164</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C13" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D13" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E13" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F13" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G13" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H13" t="n">
         <v>48.81975253256327</v>
@@ -5235,16 +5235,16 @@
         <v>351.4590821581505</v>
       </c>
       <c r="V13" t="n">
-        <v>351.4590821581505</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="W13" t="n">
-        <v>62.04191212118991</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="X13" t="n">
-        <v>62.04191212118991</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="Y13" t="n">
-        <v>62.04191212118991</v>
+        <v>96.77459395226364</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1709.031486683716</v>
+        <v>1033.392538692174</v>
       </c>
       <c r="C14" t="n">
-        <v>1340.068969743304</v>
+        <v>1033.392538692174</v>
       </c>
       <c r="D14" t="n">
-        <v>981.8032711365536</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="E14" t="n">
-        <v>596.0150185383093</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="F14" t="n">
-        <v>540.4033113775685</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G14" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H14" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I14" t="n">
         <v>48.81975253256327</v>
@@ -5281,7 +5281,7 @@
         <v>145.9660485697318</v>
       </c>
       <c r="K14" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L14" t="n">
         <v>795.0052981540045</v>
@@ -5302,28 +5302,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S14" t="n">
-        <v>2259.7089786956</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T14" t="n">
-        <v>2040.094374027286</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U14" t="n">
-        <v>2040.094374027286</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V14" t="n">
-        <v>1709.031486683716</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="W14" t="n">
-        <v>1709.031486683716</v>
+        <v>1033.392538692174</v>
       </c>
       <c r="X14" t="n">
-        <v>1709.031486683716</v>
+        <v>1033.392538692174</v>
       </c>
       <c r="Y14" t="n">
-        <v>1709.031486683716</v>
+        <v>1033.392538692174</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>816.0090920043505</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C15" t="n">
-        <v>641.5560627232235</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D15" t="n">
-        <v>492.6216530619722</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E15" t="n">
-        <v>333.3841980565167</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F15" t="n">
-        <v>186.8496400834017</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G15" t="n">
-        <v>48.81975253256327</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H15" t="n">
         <v>48.81975253256327</v>
@@ -5363,19 +5363,19 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L15" t="n">
-        <v>728.4044351658748</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M15" t="n">
         <v>1222.807150561437</v>
       </c>
       <c r="N15" t="n">
-        <v>1746.002248079784</v>
+        <v>1746.002248079783</v>
       </c>
       <c r="O15" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
@@ -5387,22 +5387,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T15" t="n">
-        <v>2117.403196885135</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U15" t="n">
-        <v>1889.225692954849</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V15" t="n">
-        <v>1654.073584723107</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W15" t="n">
-        <v>1399.836227994905</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X15" t="n">
-        <v>1191.984727789372</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y15" t="n">
-        <v>984.2244290244184</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="16">
@@ -5445,31 +5445,31 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M16" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N16" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O16" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P16" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q16" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R16" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S16" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T16" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U16" t="n">
-        <v>351.4590821581505</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="V16" t="n">
         <v>338.2369225695239</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1702.64492851199</v>
+        <v>1632.744092790253</v>
       </c>
       <c r="C17" t="n">
-        <v>1702.64492851199</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D17" t="n">
-        <v>1344.379229905239</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E17" t="n">
-        <v>958.5909773069948</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F17" t="n">
-        <v>958.5909773069948</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G17" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H17" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I17" t="n">
         <v>48.81975253256327</v>
@@ -5542,25 +5542,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S17" t="n">
-        <v>2275.028188450417</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T17" t="n">
-        <v>2055.413583782104</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U17" t="n">
-        <v>2055.413583782104</v>
+        <v>1985.512748060367</v>
       </c>
       <c r="V17" t="n">
-        <v>2055.413583782104</v>
+        <v>1985.512748060367</v>
       </c>
       <c r="W17" t="n">
-        <v>1702.64492851199</v>
+        <v>1632.744092790253</v>
       </c>
       <c r="X17" t="n">
-        <v>1702.64492851199</v>
+        <v>1632.744092790253</v>
       </c>
       <c r="Y17" t="n">
-        <v>1702.64492851199</v>
+        <v>1632.744092790253</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>784.5787559137638</v>
+        <v>735.640995400452</v>
       </c>
       <c r="C18" t="n">
-        <v>610.1257266326368</v>
+        <v>561.187966119325</v>
       </c>
       <c r="D18" t="n">
-        <v>461.1913169713854</v>
+        <v>412.2535564580737</v>
       </c>
       <c r="E18" t="n">
-        <v>301.9538619659299</v>
+        <v>253.0161014526182</v>
       </c>
       <c r="F18" t="n">
-        <v>155.4193039928149</v>
+        <v>253.0161014526182</v>
       </c>
       <c r="G18" t="n">
-        <v>155.4193039928149</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H18" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I18" t="n">
         <v>48.81975253256327</v>
@@ -5618,28 +5618,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R18" t="n">
-        <v>2383.337730684675</v>
+        <v>2396.794154541194</v>
       </c>
       <c r="S18" t="n">
-        <v>2222.939999577549</v>
+        <v>2236.396423434067</v>
       </c>
       <c r="T18" t="n">
-        <v>2023.578676424718</v>
+        <v>2037.035100281236</v>
       </c>
       <c r="U18" t="n">
-        <v>1857.795356864263</v>
+        <v>1808.857596350951</v>
       </c>
       <c r="V18" t="n">
-        <v>1622.64324863252</v>
+        <v>1573.705488119208</v>
       </c>
       <c r="W18" t="n">
-        <v>1368.405891904318</v>
+        <v>1319.468131391007</v>
       </c>
       <c r="X18" t="n">
-        <v>1160.554391698786</v>
+        <v>1111.616631185474</v>
       </c>
       <c r="Y18" t="n">
-        <v>952.7940929338317</v>
+        <v>903.8563324205199</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>335.058361281315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C19" t="n">
-        <v>335.058361281315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D19" t="n">
-        <v>335.058361281315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E19" t="n">
-        <v>335.058361281315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F19" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G19" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H19" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I19" t="n">
         <v>48.81975253256327</v>
@@ -5697,28 +5697,28 @@
         <v>640.638169680758</v>
       </c>
       <c r="R19" t="n">
-        <v>640.638169680758</v>
+        <v>592.9214107754108</v>
       </c>
       <c r="S19" t="n">
-        <v>424.5997883913113</v>
+        <v>592.9214107754108</v>
       </c>
       <c r="T19" t="n">
-        <v>424.5997883913113</v>
+        <v>592.9214107754108</v>
       </c>
       <c r="U19" t="n">
-        <v>424.5997883913113</v>
+        <v>592.9214107754108</v>
       </c>
       <c r="V19" t="n">
-        <v>424.5997883913113</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W19" t="n">
-        <v>424.5997883913113</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X19" t="n">
-        <v>424.5997883913113</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y19" t="n">
-        <v>335.058361281315</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>133.5568550570346</v>
+        <v>820.7988449929635</v>
       </c>
       <c r="C20" t="n">
-        <v>48.81975253256327</v>
+        <v>451.8363280525518</v>
       </c>
       <c r="D20" t="n">
-        <v>48.81975253256327</v>
+        <v>93.57062944580127</v>
       </c>
       <c r="E20" t="n">
-        <v>48.81975253256327</v>
+        <v>93.57062944580127</v>
       </c>
       <c r="F20" t="n">
         <v>48.81975253256327</v>
@@ -5752,13 +5752,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J20" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K20" t="n">
         <v>412.307967997759</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540044</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
@@ -5776,28 +5776,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R20" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S20" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T20" t="n">
-        <v>2221.37302195985</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U20" t="n">
-        <v>1967.593327971733</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="V20" t="n">
-        <v>1636.530440628162</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="W20" t="n">
-        <v>1283.761785358048</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="X20" t="n">
-        <v>910.2960270969681</v>
+        <v>1597.538017032897</v>
       </c>
       <c r="Y20" t="n">
-        <v>520.1566951211564</v>
+        <v>1207.398685057085</v>
       </c>
     </row>
     <row r="21">
@@ -5813,19 +5813,19 @@
         <v>547.7315422628061</v>
       </c>
       <c r="D21" t="n">
-        <v>398.7971326015548</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="E21" t="n">
-        <v>239.5596775960993</v>
+        <v>388.4940872573506</v>
       </c>
       <c r="F21" t="n">
-        <v>93.02511962298431</v>
+        <v>241.9595292842356</v>
       </c>
       <c r="G21" t="n">
-        <v>48.81975253256327</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H21" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I21" t="n">
         <v>48.81975253256327</v>
@@ -5834,10 +5834,10 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K21" t="n">
-        <v>349.2772920404815</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L21" t="n">
-        <v>697.3559079137186</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M21" t="n">
         <v>1191.758623309281</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.6665030146202</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="C22" t="n">
-        <v>130.6665030146202</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="D22" t="n">
-        <v>130.6665030146202</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="E22" t="n">
-        <v>130.6665030146202</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F22" t="n">
-        <v>130.6665030146202</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G22" t="n">
         <v>48.81975253256327</v>
@@ -5919,43 +5919,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M22" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N22" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O22" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P22" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q22" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R22" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S22" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T22" t="n">
-        <v>640.638169680758</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U22" t="n">
-        <v>351.4590821581503</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="V22" t="n">
-        <v>351.4590821581503</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="W22" t="n">
-        <v>351.4590821581503</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="X22" t="n">
-        <v>351.4590821581503</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.6665030146202</v>
+        <v>217.9199677091171</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1290.78269632715</v>
+        <v>284.0808609920386</v>
       </c>
       <c r="C23" t="n">
-        <v>1263.781575849841</v>
+        <v>284.0808609920386</v>
       </c>
       <c r="D23" t="n">
-        <v>1263.781575849841</v>
+        <v>284.0808609920386</v>
       </c>
       <c r="E23" t="n">
-        <v>877.9933232515971</v>
+        <v>284.0808609920386</v>
       </c>
       <c r="F23" t="n">
-        <v>467.0074184619895</v>
+        <v>284.0808609920386</v>
       </c>
       <c r="G23" t="n">
         <v>48.81975253256327</v>
@@ -6013,28 +6013,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R23" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S23" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T23" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U23" t="n">
-        <v>2440.987626628164</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="V23" t="n">
-        <v>2440.987626628164</v>
+        <v>1787.054446563166</v>
       </c>
       <c r="W23" t="n">
-        <v>2440.987626628164</v>
+        <v>1434.285791293052</v>
       </c>
       <c r="X23" t="n">
-        <v>2067.521868367084</v>
+        <v>1060.820033031972</v>
       </c>
       <c r="Y23" t="n">
-        <v>1677.382536391272</v>
+        <v>670.6807010561604</v>
       </c>
     </row>
     <row r="24">
@@ -6056,10 +6056,10 @@
         <v>239.5596775960993</v>
       </c>
       <c r="F24" t="n">
-        <v>186.8496400834017</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G24" t="n">
-        <v>48.81975253256327</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H24" t="n">
         <v>48.81975253256327</v>
@@ -6080,13 +6080,13 @@
         <v>1222.807150561437</v>
       </c>
       <c r="N24" t="n">
-        <v>1557.865593173221</v>
+        <v>1746.002248079783</v>
       </c>
       <c r="O24" t="n">
-        <v>1970.07121469245</v>
+        <v>2158.207869599012</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>412.9009368039365</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C25" t="n">
-        <v>412.9009368039365</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D25" t="n">
-        <v>412.9009368039365</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E25" t="n">
-        <v>412.9009368039365</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F25" t="n">
-        <v>346.8095662305</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G25" t="n">
-        <v>346.8095662305</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H25" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I25" t="n">
         <v>48.81975253256327</v>
@@ -6177,22 +6177,22 @@
         <v>640.638169680758</v>
       </c>
       <c r="T25" t="n">
-        <v>412.9009368039365</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U25" t="n">
-        <v>412.9009368039365</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="V25" t="n">
-        <v>412.9009368039365</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W25" t="n">
-        <v>412.9009368039365</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X25" t="n">
-        <v>412.9009368039365</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y25" t="n">
-        <v>412.9009368039365</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>417.782269472975</v>
+        <v>1337.17746876542</v>
       </c>
       <c r="C26" t="n">
-        <v>48.81975253256327</v>
+        <v>1337.17746876542</v>
       </c>
       <c r="D26" t="n">
-        <v>48.81975253256327</v>
+        <v>1337.17746876542</v>
       </c>
       <c r="E26" t="n">
-        <v>48.81975253256327</v>
+        <v>951.3892161671761</v>
       </c>
       <c r="F26" t="n">
-        <v>48.81975253256327</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="G26" t="n">
-        <v>48.81975253256327</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H26" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I26" t="n">
         <v>48.81975253256327</v>
@@ -6229,10 +6229,10 @@
         <v>145.9660485697318</v>
       </c>
       <c r="K26" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M26" t="n">
         <v>1237.436361307048</v>
@@ -6253,25 +6253,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S26" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T26" t="n">
-        <v>2251.818742387673</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U26" t="n">
-        <v>2251.818742387673</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V26" t="n">
-        <v>1920.755855044102</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="W26" t="n">
-        <v>1567.987199773988</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="X26" t="n">
-        <v>1194.521441512908</v>
+        <v>1727.316800741232</v>
       </c>
       <c r="Y26" t="n">
-        <v>804.3821095370968</v>
+        <v>1337.17746876542</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>722.1845715439331</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C27" t="n">
-        <v>547.7315422628061</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D27" t="n">
-        <v>398.7971326015548</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E27" t="n">
-        <v>239.5596775960993</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F27" t="n">
-        <v>186.8496400834017</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G27" t="n">
-        <v>48.81975253256327</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H27" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I27" t="n">
         <v>48.81975253256327</v>
@@ -6311,10 +6311,10 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L27" t="n">
-        <v>728.4044351658747</v>
+        <v>540.2677802593126</v>
       </c>
       <c r="M27" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N27" t="n">
         <v>1557.865593173221</v>
@@ -6341,16 +6341,16 @@
         <v>1795.401172494432</v>
       </c>
       <c r="V27" t="n">
-        <v>1560.249064262689</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="W27" t="n">
-        <v>1306.011707534488</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X27" t="n">
-        <v>1098.160207328955</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y27" t="n">
-        <v>890.3999085640012</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>351.2209996437974</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="C28" t="n">
-        <v>345.8263394428094</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="D28" t="n">
-        <v>195.7097000304736</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="E28" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F28" t="n">
         <v>48.81975253256327</v>
@@ -6411,25 +6411,25 @@
         <v>640.638169680758</v>
       </c>
       <c r="S28" t="n">
-        <v>640.638169680758</v>
+        <v>485.9119336375641</v>
       </c>
       <c r="T28" t="n">
-        <v>640.638169680758</v>
+        <v>485.9119336375641</v>
       </c>
       <c r="U28" t="n">
-        <v>640.638169680758</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="V28" t="n">
-        <v>640.638169680758</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="W28" t="n">
-        <v>351.2209996437974</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="X28" t="n">
-        <v>351.2209996437974</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="Y28" t="n">
-        <v>351.2209996437974</v>
+        <v>196.7328461149564</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1263.781575849841</v>
+        <v>1102.483137425484</v>
       </c>
       <c r="C29" t="n">
-        <v>1263.781575849841</v>
+        <v>1102.483137425484</v>
       </c>
       <c r="D29" t="n">
-        <v>1263.781575849841</v>
+        <v>1102.483137425484</v>
       </c>
       <c r="E29" t="n">
-        <v>877.9933232515971</v>
+        <v>1102.483137425484</v>
       </c>
       <c r="F29" t="n">
-        <v>467.0074184619895</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G29" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H29" t="n">
         <v>48.81975253256327</v>
@@ -6463,7 +6463,7 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J29" t="n">
-        <v>145.9660485697318</v>
+        <v>145.9660485697319</v>
       </c>
       <c r="K29" t="n">
         <v>412.307967997759</v>
@@ -6481,7 +6481,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P29" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q29" t="n">
         <v>2440.987626628164</v>
@@ -6490,25 +6490,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S29" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T29" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.094374027287</v>
       </c>
       <c r="U29" t="n">
-        <v>2440.987626628164</v>
+        <v>1786.314680039169</v>
       </c>
       <c r="V29" t="n">
-        <v>2109.924739284593</v>
+        <v>1455.251792695598</v>
       </c>
       <c r="W29" t="n">
-        <v>2109.924739284593</v>
+        <v>1102.483137425484</v>
       </c>
       <c r="X29" t="n">
-        <v>2040.520747889775</v>
+        <v>1102.483137425484</v>
       </c>
       <c r="Y29" t="n">
-        <v>1650.381415913963</v>
+        <v>1102.483137425484</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>829.5376498283632</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C30" t="n">
-        <v>655.0846205472362</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D30" t="n">
-        <v>506.150210885985</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E30" t="n">
-        <v>506.150210885985</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F30" t="n">
-        <v>359.6156529128699</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G30" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H30" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I30" t="n">
         <v>48.81975253256327</v>
@@ -6554,13 +6554,13 @@
         <v>1222.807150561437</v>
       </c>
       <c r="N30" t="n">
-        <v>1557.865593173221</v>
+        <v>1746.002248079783</v>
       </c>
       <c r="O30" t="n">
-        <v>1970.07121469245</v>
+        <v>2158.207869599012</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
@@ -6569,25 +6569,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S30" t="n">
-        <v>2222.939999577549</v>
+        <v>2255.14873447815</v>
       </c>
       <c r="T30" t="n">
-        <v>2130.931754709148</v>
+        <v>2055.787411325319</v>
       </c>
       <c r="U30" t="n">
-        <v>1902.754250778862</v>
+        <v>1827.609907395033</v>
       </c>
       <c r="V30" t="n">
-        <v>1667.602142547119</v>
+        <v>1592.45779916329</v>
       </c>
       <c r="W30" t="n">
-        <v>1413.364785818918</v>
+        <v>1338.220442435089</v>
       </c>
       <c r="X30" t="n">
-        <v>1205.513285613385</v>
+        <v>1130.368942229556</v>
       </c>
       <c r="Y30" t="n">
-        <v>997.7529868484312</v>
+        <v>922.6086434646021</v>
       </c>
     </row>
     <row r="31">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>803.5705220712192</v>
+        <v>876.4648423029605</v>
       </c>
       <c r="C32" t="n">
-        <v>434.6080051308075</v>
+        <v>507.5023253625488</v>
       </c>
       <c r="D32" t="n">
-        <v>434.6080051308075</v>
+        <v>149.2366267557983</v>
       </c>
       <c r="E32" t="n">
-        <v>48.81975253256327</v>
+        <v>149.2366267557983</v>
       </c>
       <c r="F32" t="n">
-        <v>48.81975253256327</v>
+        <v>149.2366267557983</v>
       </c>
       <c r="G32" t="n">
-        <v>48.81975253256327</v>
+        <v>149.2366267557983</v>
       </c>
       <c r="H32" t="n">
-        <v>48.81975253256327</v>
+        <v>149.2366267557983</v>
       </c>
       <c r="I32" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J32" t="n">
-        <v>145.9660485697319</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K32" t="n">
         <v>412.307967997759</v>
@@ -6718,7 +6718,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P32" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q32" t="n">
         <v>2440.987626628164</v>
@@ -6730,22 +6730,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T32" t="n">
-        <v>2221.373021959851</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U32" t="n">
         <v>1967.593327971733</v>
       </c>
       <c r="V32" t="n">
-        <v>1933.078349381267</v>
+        <v>1636.530440628162</v>
       </c>
       <c r="W32" t="n">
-        <v>1580.309694111153</v>
+        <v>1636.530440628162</v>
       </c>
       <c r="X32" t="n">
-        <v>1580.309694111153</v>
+        <v>1263.064682367082</v>
       </c>
       <c r="Y32" t="n">
-        <v>1190.170362135341</v>
+        <v>1263.064682367082</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J33" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K33" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L33" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M33" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N33" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O33" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q33" t="n">
         <v>2440.987626628164</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118968</v>
       </c>
       <c r="C34" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118968</v>
       </c>
       <c r="D34" t="n">
         <v>48.81975253256327</v>
@@ -6894,16 +6894,16 @@
         <v>351.4590821581503</v>
       </c>
       <c r="V34" t="n">
-        <v>338.2369225695239</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="W34" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118968</v>
       </c>
       <c r="X34" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118968</v>
       </c>
       <c r="Y34" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118968</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>796.4947224030295</v>
+        <v>1444.29994539412</v>
       </c>
       <c r="C35" t="n">
-        <v>796.4947224030295</v>
+        <v>1075.337428453709</v>
       </c>
       <c r="D35" t="n">
-        <v>796.4947224030295</v>
+        <v>1075.337428453709</v>
       </c>
       <c r="E35" t="n">
-        <v>796.4947224030295</v>
+        <v>689.5491758554645</v>
       </c>
       <c r="F35" t="n">
-        <v>796.4947224030295</v>
+        <v>278.5632710658569</v>
       </c>
       <c r="G35" t="n">
-        <v>378.3070564736033</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H35" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I35" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J35" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K35" t="n">
         <v>412.307967997759</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
@@ -6961,28 +6961,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R35" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S35" t="n">
-        <v>2277.762540047614</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T35" t="n">
-        <v>2277.762540047614</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U35" t="n">
-        <v>2277.762540047614</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="V35" t="n">
-        <v>1946.699652704043</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="W35" t="n">
-        <v>1946.699652704043</v>
+        <v>1834.439277369932</v>
       </c>
       <c r="X35" t="n">
-        <v>1573.233894442963</v>
+        <v>1834.439277369932</v>
       </c>
       <c r="Y35" t="n">
-        <v>1183.094562467151</v>
+        <v>1444.29994539412</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>722.1845715439331</v>
+        <v>850.7452172829803</v>
       </c>
       <c r="C36" t="n">
-        <v>547.7315422628061</v>
+        <v>676.2921880018533</v>
       </c>
       <c r="D36" t="n">
-        <v>398.7971326015548</v>
+        <v>527.3577783406021</v>
       </c>
       <c r="E36" t="n">
-        <v>239.5596775960993</v>
+        <v>368.1203233351466</v>
       </c>
       <c r="F36" t="n">
-        <v>93.02511962298431</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="G36" t="n">
-        <v>48.81975253256327</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H36" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I36" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K36" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L36" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M36" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N36" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O36" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R36" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S36" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T36" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U36" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V36" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W36" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X36" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y36" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="37">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>48.81975253256327</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="C37" t="n">
         <v>48.81975253256327</v>
@@ -7125,22 +7125,22 @@
         <v>640.638169680758</v>
       </c>
       <c r="T37" t="n">
-        <v>640.638169680758</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="U37" t="n">
-        <v>351.4590821581503</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="V37" t="n">
-        <v>96.77459395226342</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="W37" t="n">
-        <v>48.81975253256327</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="X37" t="n">
-        <v>48.81975253256327</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="Y37" t="n">
-        <v>48.81975253256327</v>
+        <v>217.7559354604702</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>818.0713559289213</v>
+        <v>1834.439277369932</v>
       </c>
       <c r="C38" t="n">
-        <v>818.0713559289213</v>
+        <v>1465.47676042952</v>
       </c>
       <c r="D38" t="n">
-        <v>459.8056573221708</v>
+        <v>1107.21106182277</v>
       </c>
       <c r="E38" t="n">
-        <v>459.8056573221708</v>
+        <v>721.4228092245257</v>
       </c>
       <c r="F38" t="n">
-        <v>48.81975253256327</v>
+        <v>310.4369044349182</v>
       </c>
       <c r="G38" t="n">
         <v>48.81975253256327</v>
@@ -7177,16 +7177,16 @@
         <v>145.9660485697318</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M38" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N38" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O38" t="n">
         <v>2037.925350935285</v>
@@ -7198,28 +7198,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S38" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T38" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U38" t="n">
-        <v>2371.897027894854</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="V38" t="n">
-        <v>2321.044941500049</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="W38" t="n">
-        <v>1968.276286229935</v>
+        <v>1834.439277369932</v>
       </c>
       <c r="X38" t="n">
-        <v>1594.810527968855</v>
+        <v>1834.439277369932</v>
       </c>
       <c r="Y38" t="n">
-        <v>1204.671195993043</v>
+        <v>1834.439277369932</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>842.2405468607036</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C39" t="n">
-        <v>667.7875175795766</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D39" t="n">
-        <v>518.8531079183253</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E39" t="n">
-        <v>359.6156529128699</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F39" t="n">
         <v>359.6156529128699</v>
@@ -7256,49 +7256,49 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K39" t="n">
-        <v>161.1406371339194</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L39" t="n">
-        <v>540.2677802593126</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M39" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N39" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O39" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q39" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R39" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S39" t="n">
-        <v>2222.939999577549</v>
+        <v>2290.169209714603</v>
       </c>
       <c r="T39" t="n">
-        <v>2023.578676424718</v>
+        <v>2290.169209714603</v>
       </c>
       <c r="U39" t="n">
-        <v>1915.457147811203</v>
+        <v>2061.991705784318</v>
       </c>
       <c r="V39" t="n">
-        <v>1680.30503957946</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="W39" t="n">
-        <v>1426.067682851258</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X39" t="n">
-        <v>1218.216182645725</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y39" t="n">
-        <v>1010.455883880772</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="40">
@@ -7341,34 +7341,34 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M40" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O40" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P40" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q40" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R40" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S40" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T40" t="n">
-        <v>627.4160100921315</v>
+        <v>592.6833282610578</v>
       </c>
       <c r="U40" t="n">
-        <v>338.2369225695239</v>
+        <v>303.5042407384502</v>
       </c>
       <c r="V40" t="n">
-        <v>338.2369225695239</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="W40" t="n">
         <v>48.81975253256327</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1605.221538798759</v>
+        <v>1214.671186624739</v>
       </c>
       <c r="C41" t="n">
-        <v>1236.259021858348</v>
+        <v>1214.671186624739</v>
       </c>
       <c r="D41" t="n">
-        <v>877.9933232515971</v>
+        <v>1214.671186624739</v>
       </c>
       <c r="E41" t="n">
-        <v>877.9933232515971</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F41" t="n">
-        <v>467.0074184619895</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G41" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H41" t="n">
         <v>48.81975253256327</v>
@@ -7411,10 +7411,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J41" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K41" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L41" t="n">
         <v>795.0052981540045</v>
@@ -7423,40 +7423,40 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N41" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O41" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P41" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q41" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R41" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S41" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T41" t="n">
-        <v>2440.987626628164</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U41" t="n">
-        <v>2368.826629035651</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="V41" t="n">
-        <v>2368.826629035651</v>
+        <v>1567.439841894853</v>
       </c>
       <c r="W41" t="n">
-        <v>2368.826629035651</v>
+        <v>1214.671186624739</v>
       </c>
       <c r="X41" t="n">
-        <v>1995.360870774571</v>
+        <v>1214.671186624739</v>
       </c>
       <c r="Y41" t="n">
-        <v>1605.221538798759</v>
+        <v>1214.671186624739</v>
       </c>
     </row>
     <row r="42">
@@ -7469,22 +7469,22 @@
         <v>722.1845715439331</v>
       </c>
       <c r="C42" t="n">
-        <v>722.1845715439331</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D42" t="n">
-        <v>573.2501618826818</v>
+        <v>461.1913169713854</v>
       </c>
       <c r="E42" t="n">
-        <v>414.0127068772263</v>
+        <v>301.9538619659299</v>
       </c>
       <c r="F42" t="n">
-        <v>267.4781489041113</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="G42" t="n">
-        <v>129.4482613532729</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H42" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I42" t="n">
         <v>48.81975253256327</v>
@@ -7493,22 +7493,22 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K42" t="n">
-        <v>161.1406371339193</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L42" t="n">
-        <v>540.2677802593125</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M42" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N42" t="n">
-        <v>1557.865593173221</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O42" t="n">
-        <v>1970.07121469245</v>
+        <v>2158.207869599013</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q42" t="n">
         <v>2440.987626628164</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>207.4609049796586</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="C43" t="n">
-        <v>207.4609049796586</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="D43" t="n">
-        <v>207.4609049796586</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="E43" t="n">
-        <v>207.4609049796586</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F43" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G43" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H43" t="n">
         <v>48.81975253256327</v>
@@ -7590,31 +7590,31 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Q43" t="n">
-        <v>640.6381696807582</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="R43" t="n">
-        <v>640.6381696807582</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="S43" t="n">
-        <v>496.8780750166192</v>
+        <v>386.7744894175001</v>
       </c>
       <c r="T43" t="n">
-        <v>496.8780750166192</v>
+        <v>386.7744894175001</v>
       </c>
       <c r="U43" t="n">
-        <v>496.8780750166192</v>
+        <v>386.7744894175001</v>
       </c>
       <c r="V43" t="n">
-        <v>496.8780750166192</v>
+        <v>386.7744894175001</v>
       </c>
       <c r="W43" t="n">
-        <v>207.4609049796586</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="X43" t="n">
-        <v>207.4609049796586</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="Y43" t="n">
-        <v>207.4609049796586</v>
+        <v>343.6227936128668</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1632.744092790253</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="C44" t="n">
-        <v>1263.781575849841</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="D44" t="n">
-        <v>1263.781575849841</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="E44" t="n">
-        <v>877.9933232515971</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="F44" t="n">
-        <v>467.0074184619895</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G44" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H44" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I44" t="n">
         <v>48.81975253256327</v>
@@ -7651,22 +7651,22 @@
         <v>145.966048569732</v>
       </c>
       <c r="K44" t="n">
-        <v>412.3079679977586</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L44" t="n">
-        <v>795.0052981540041</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M44" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N44" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O44" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P44" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q44" t="n">
         <v>2440.987626628164</v>
@@ -7678,22 +7678,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T44" t="n">
-        <v>2273.123626842492</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U44" t="n">
-        <v>2019.343932854375</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="V44" t="n">
-        <v>2019.343932854375</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="W44" t="n">
-        <v>2019.343932854375</v>
+        <v>1868.604366689736</v>
       </c>
       <c r="X44" t="n">
-        <v>2019.343932854375</v>
+        <v>1816.828750195496</v>
       </c>
       <c r="Y44" t="n">
-        <v>2019.343932854375</v>
+        <v>1426.689418219684</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>722.1845715439331</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C45" t="n">
-        <v>547.7315422628061</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D45" t="n">
-        <v>398.7971326015548</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E45" t="n">
-        <v>239.5596775960993</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F45" t="n">
-        <v>93.02511962298431</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G45" t="n">
-        <v>48.81975253256327</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H45" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I45" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K45" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L45" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M45" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N45" t="n">
-        <v>1681.835959361802</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O45" t="n">
-        <v>2094.041580881031</v>
+        <v>2158.207869599013</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.869865162339</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q45" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R45" t="n">
-        <v>2383.337730684675</v>
+        <v>2395.690907246359</v>
       </c>
       <c r="S45" t="n">
-        <v>2222.939999577549</v>
+        <v>2235.293176139233</v>
       </c>
       <c r="T45" t="n">
-        <v>2023.578676424718</v>
+        <v>2035.931852986402</v>
       </c>
       <c r="U45" t="n">
-        <v>1795.401172494432</v>
+        <v>1807.754349056116</v>
       </c>
       <c r="V45" t="n">
-        <v>1560.249064262689</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="W45" t="n">
-        <v>1306.011707534488</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X45" t="n">
-        <v>1098.160207328955</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y45" t="n">
-        <v>890.3999085640012</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="46">
@@ -7836,19 +7836,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T46" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U46" t="n">
-        <v>592.9214107754108</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="V46" t="n">
-        <v>338.2369225695239</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="W46" t="n">
-        <v>48.81975253256327</v>
+        <v>123.4837667669761</v>
       </c>
       <c r="X46" t="n">
-        <v>48.81975253256327</v>
+        <v>123.4837667669761</v>
       </c>
       <c r="Y46" t="n">
         <v>48.81975253256327</v>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8309,13 +8309,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>94.72888660085704</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8786,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>287.1006199003852</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>51.40241131725695</v>
@@ -9020,13 +9020,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>203.8252941185856</v>
+        <v>362.5001705371781</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725696</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>233.1030882730268</v>
       </c>
       <c r="L21" t="n">
-        <v>339.4781965639075</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.40241131725696</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,16 +9728,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>287.1006199003857</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725696</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,13 +9959,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>180.8033201453156</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10202,16 +10202,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>287.1006199003857</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725696</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.27660229194304</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K39" t="n">
-        <v>139.2426449029008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599044</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>74.42821185443489</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11156,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>287.1006199003852</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711642</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599044</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11393,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>287.1006199003852</v>
       </c>
       <c r="Q45" t="n">
-        <v>84.85469562617106</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>201.1085067605736</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>117.6463471260176</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23348,16 +23348,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>127.2750392816568</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.64958867533</v>
+        <v>53.35061880807845</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>132.3566871764339</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23433,7 +23433,7 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H13" t="n">
-        <v>143.9648029298839</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I13" t="n">
         <v>137.955174638333</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>175.8921426650617</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>351.820455652578</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23551,13 +23551,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23588,10 +23588,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5335559456492</v>
+        <v>61.77024252613235</v>
       </c>
       <c r="I15" t="n">
         <v>65.50479675552441</v>
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>92.88627525581298</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R16" t="n">
         <v>151.1350615014064</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>239.0477053310876</v>
+        <v>239.0477053310879</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>68.39969274597631</v>
       </c>
       <c r="S17" t="n">
-        <v>15.16601765726912</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2418970482362</v>
+        <v>197.2060873409864</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23822,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>13.32185961795334</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>61.77024252613214</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.4092130247883</v>
@@ -23910,7 +23910,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J19" t="n">
         <v>52.22830032617343</v>
@@ -23937,10 +23937,10 @@
         <v>37.44704598407326</v>
       </c>
       <c r="R19" t="n">
-        <v>151.1350615014064</v>
+        <v>103.8954701851126</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
         <v>225.4598605480533</v>
@@ -23949,16 +23949,16 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>129.9386405131984</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>281.3831602717809</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>362.5726775976058</v>
       </c>
       <c r="G20" t="n">
         <v>414.005789270132</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24053,7 +24053,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>92.88627525581317</v>
+        <v>116.479562392348</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>86.38093004755198</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>157.0547409226243</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R22" t="n">
         <v>151.1350615014064</v>
@@ -24180,10 +24180,10 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>93.25613724351024</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>338.5417824984718</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>181.0972918952514</v>
       </c>
       <c r="H23" t="n">
         <v>326.1924309016296</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>179.4658614532381</v>
@@ -24262,13 +24262,13 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24296,13 +24296,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5335559456492</v>
+        <v>61.77024252613235</v>
       </c>
       <c r="I24" t="n">
         <v>65.50479675552441</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>79.99059115522911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J25" t="n">
         <v>52.22830032617343</v>
@@ -24417,16 +24417,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>239.0477053310879</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>68.39969274597631</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6071246767828</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>131.8573387202736</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24533,16 +24533,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24581,10 +24581,10 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>31.12404080756153</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>161.9061074996497</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.4092130247883</v>
@@ -24651,19 +24651,19 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S28" t="n">
-        <v>213.8779974765521</v>
+        <v>60.69902379379016</v>
       </c>
       <c r="T28" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,16 +24688,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>103.9475148694812</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>160.4752923549255</v>
@@ -24730,25 +24730,25 @@
         <v>68.39969274597631</v>
       </c>
       <c r="S29" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>301.0211491975993</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24767,7 +24767,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24779,7 +24779,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,10 +24809,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>31.88664755159485</v>
       </c>
       <c r="T30" t="n">
-        <v>106.2795475015856</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24922,10 +24922,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24937,7 +24937,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
-        <v>160.4752923549255</v>
+        <v>61.06258687392284</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>293.5824296655734</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>135.5255350254722</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>239.0477053310879</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>347.0349982770968</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S35" t="n">
-        <v>86.27271848447005</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>70.20164229760313</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25247,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>92.88627525581317</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25365,16 +25365,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T37" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>93.09374531735</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>239.0477053310879</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>155.0048088868006</v>
       </c>
       <c r="H38" t="n">
         <v>326.1924309016296</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S38" t="n">
         <v>179.4658614532381</v>
@@ -25447,19 +25447,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>277.4086929392778</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25481,7 +25481,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>9.483521051630163</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U39" t="n">
-        <v>118.8554155636026</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R40" t="n">
         <v>151.1350615014064</v>
@@ -25602,16 +25602,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T40" t="n">
-        <v>212.3699225553131</v>
+        <v>177.9845675425499</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,13 +25630,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>374.8117162344813</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>160.4752923549255</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>179.8025094316488</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25709,10 +25709,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>61.77024252613231</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25721,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
-        <v>91.21612896867103</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I43" t="n">
         <v>137.955174638333</v>
@@ -25830,13 +25830,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S43" t="n">
-        <v>71.55550375905449</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>225.4598605480533</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>243.8028194900039</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
-        <v>51.23309883381594</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>318.4732403491712</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>12.22964479606713</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26006,7 +26006,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26076,13 +26076,13 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>239.0477053310876</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>144.6672792600261</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>689883.0581727476</v>
+        <v>689883.0581727475</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>689883.0581727474</v>
+        <v>689883.0581727475</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>689883.0581727474</v>
+        <v>689883.0581727475</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>689883.0581727475</v>
+        <v>689883.0581727476</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>689883.0581727473</v>
+        <v>689883.0581727474</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>689883.0581727473</v>
+        <v>689883.0581727475</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
         <v>311813.7524761209</v>
       </c>
       <c r="F2" t="n">
-        <v>311813.7524761209</v>
+        <v>311813.752476121</v>
       </c>
       <c r="G2" t="n">
-        <v>311813.7524761209</v>
+        <v>311813.7524761208</v>
       </c>
       <c r="H2" t="n">
         <v>311813.7524761208</v>
       </c>
       <c r="I2" t="n">
+        <v>311813.7524761209</v>
+      </c>
+      <c r="J2" t="n">
+        <v>311813.7524761211</v>
+      </c>
+      <c r="K2" t="n">
+        <v>311813.752476121</v>
+      </c>
+      <c r="L2" t="n">
+        <v>311813.7524761209</v>
+      </c>
+      <c r="M2" t="n">
         <v>311813.7524761208</v>
-      </c>
-      <c r="J2" t="n">
-        <v>311813.7524761209</v>
-      </c>
-      <c r="K2" t="n">
-        <v>311813.7524761209</v>
-      </c>
-      <c r="L2" t="n">
-        <v>311813.7524761208</v>
-      </c>
-      <c r="M2" t="n">
-        <v>311813.7524761209</v>
       </c>
       <c r="N2" t="n">
         <v>311813.7524761207</v>
       </c>
       <c r="O2" t="n">
-        <v>311813.7524761208</v>
+        <v>311813.752476121</v>
       </c>
       <c r="P2" t="n">
         <v>311813.7524761208</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>369435.2991327801</v>
+        <v>369435.2991327802</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.24528109307</v>
+        <v>92014.24528109308</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329330.531561994</v>
+        <v>329330.5315619939</v>
       </c>
       <c r="C4" t="n">
         <v>329330.531561994</v>
@@ -26435,31 +26435,31 @@
         <v>53162.14282437483</v>
       </c>
       <c r="H4" t="n">
-        <v>53162.14282437482</v>
+        <v>53162.14282437483</v>
       </c>
       <c r="I4" t="n">
-        <v>53162.14282437484</v>
+        <v>53162.14282437483</v>
       </c>
       <c r="J4" t="n">
         <v>53162.14282437484</v>
       </c>
       <c r="K4" t="n">
-        <v>53162.14282437484</v>
+        <v>53162.14282437483</v>
       </c>
       <c r="L4" t="n">
-        <v>53162.14282437484</v>
+        <v>53162.14282437483</v>
       </c>
       <c r="M4" t="n">
-        <v>53162.14282437484</v>
+        <v>53162.14282437483</v>
       </c>
       <c r="N4" t="n">
-        <v>53162.14282437484</v>
+        <v>53162.14282437483</v>
       </c>
       <c r="O4" t="n">
         <v>53162.14282437483</v>
       </c>
       <c r="P4" t="n">
-        <v>53162.14282437482</v>
+        <v>53162.14282437483</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13717.78581465968</v>
+        <v>13717.78581465956</v>
       </c>
       <c r="C6" t="n">
-        <v>94487.21734620747</v>
+        <v>94487.21734620718</v>
       </c>
       <c r="D6" t="n">
-        <v>94487.2173462073</v>
+        <v>94487.21734620724</v>
       </c>
       <c r="E6" t="n">
-        <v>-161888.6520751047</v>
+        <v>-155616.6199587458</v>
       </c>
       <c r="F6" t="n">
-        <v>207546.6470576754</v>
+        <v>213818.6791740345</v>
       </c>
       <c r="G6" t="n">
-        <v>207546.6470576754</v>
+        <v>213818.6791740343</v>
       </c>
       <c r="H6" t="n">
-        <v>207546.6470576753</v>
+        <v>213818.6791740343</v>
       </c>
       <c r="I6" t="n">
-        <v>207546.6470576753</v>
+        <v>213818.6791740344</v>
       </c>
       <c r="J6" t="n">
-        <v>144486.7044585691</v>
+        <v>150758.7365749284</v>
       </c>
       <c r="K6" t="n">
-        <v>207546.6470576754</v>
+        <v>213818.6791740345</v>
       </c>
       <c r="L6" t="n">
-        <v>207546.6470576753</v>
+        <v>213818.6791740344</v>
       </c>
       <c r="M6" t="n">
-        <v>115532.4017765824</v>
+        <v>121804.4338929412</v>
       </c>
       <c r="N6" t="n">
-        <v>207546.6470576751</v>
+        <v>213818.6791740342</v>
       </c>
       <c r="O6" t="n">
-        <v>207546.6470576753</v>
+        <v>213818.6791740345</v>
       </c>
       <c r="P6" t="n">
-        <v>207546.6470576753</v>
+        <v>213818.6791740343</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>369.2326177793818</v>
+        <v>369.2326177793819</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793818</v>
+        <v>369.2326177793819</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793818</v>
+        <v>369.2326177793819</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>199.8391668911481</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>312.2938397833332</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>46.34990878792868</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>126.3942969708654</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27560,10 +27560,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,16 +27578,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,10 +27624,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>349.7082848322977</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>160.1841744027037</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27709,16 +27709,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27751,13 +27751,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>216.0174897731074</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>165.9747383008653</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.8756670037568</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,10 +27794,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>47.2544399028796</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>231.8333861825618</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>319.1698855250446</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27934,16 +27934,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>69.08468669572613</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>59.84577397866495</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27955,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27988,19 +27988,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>59.79494433408007</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28034,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>213.1087345205756</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H14" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I14" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J14" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K14" t="n">
         <v>164.9766803203078</v>
@@ -32010,7 +32010,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N14" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O14" t="n">
         <v>218.5211886152591</v>
@@ -32022,13 +32022,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R14" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S14" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T14" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U14" t="n">
         <v>0.1037558596002446</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H15" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I15" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J15" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K15" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L15" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M15" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N15" t="n">
         <v>180.479234222958</v>
@@ -32098,10 +32098,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R15" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S15" t="n">
         <v>12.88941730778304</v>
@@ -32110,7 +32110,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,40 +32147,40 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H16" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I16" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J16" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K16" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L16" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M16" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N16" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O16" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P16" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R16" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S16" t="n">
         <v>10.13860056042011</v>
@@ -32189,7 +32189,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H20" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I20" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J20" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K20" t="n">
         <v>164.9766803203078</v>
@@ -32484,7 +32484,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N20" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O20" t="n">
         <v>218.5211886152591</v>
@@ -32496,13 +32496,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R20" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S20" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T20" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U20" t="n">
         <v>0.1037558596002446</v>
@@ -32542,25 +32542,25 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H21" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I21" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J21" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K21" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L21" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M21" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N21" t="n">
         <v>180.479234222958</v>
@@ -32572,10 +32572,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R21" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S21" t="n">
         <v>12.88941730778304</v>
@@ -32584,7 +32584,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,40 +32621,40 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H22" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I22" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J22" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K22" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L22" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M22" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N22" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O22" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P22" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R22" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S22" t="n">
         <v>10.13860056042011</v>
@@ -32663,7 +32663,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H38" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I38" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J38" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K38" t="n">
         <v>164.9766803203078</v>
@@ -33906,7 +33906,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N38" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O38" t="n">
         <v>218.5211886152591</v>
@@ -33918,13 +33918,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R38" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S38" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T38" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U38" t="n">
         <v>0.1037558596002446</v>
@@ -33964,25 +33964,25 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H39" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I39" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J39" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K39" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L39" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M39" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N39" t="n">
         <v>180.479234222958</v>
@@ -33994,10 +33994,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R39" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S39" t="n">
         <v>12.88941730778304</v>
@@ -34006,7 +34006,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,40 +34043,40 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H40" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I40" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J40" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K40" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L40" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M40" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N40" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O40" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P40" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R40" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S40" t="n">
         <v>10.13860056042011</v>
@@ -34085,7 +34085,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35029,13 +35029,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>64.81443304846582</v>
+        <v>33.45228430891401</v>
       </c>
       <c r="K12" t="n">
         <v>238.6780311009466</v>
@@ -35506,7 +35506,7 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P12" t="n">
-        <v>285.6361182112636</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K14" t="n">
         <v>269.032241846492</v>
@@ -35655,7 +35655,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M14" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N14" t="n">
         <v>439.3515785419015</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>64.81443304846582</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K15" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L15" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M15" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N15" t="n">
         <v>528.4798964831782</v>
       </c>
       <c r="O15" t="n">
-        <v>226.3322895077438</v>
+        <v>385.0071659263362</v>
       </c>
       <c r="P15" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L16" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M16" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N16" t="n">
         <v>133.158287785359</v>
@@ -35822,7 +35822,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P16" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K20" t="n">
         <v>269.032241846492</v>
@@ -36129,7 +36129,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M20" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N20" t="n">
         <v>439.3515785419015</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>64.8144330484658</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K21" t="n">
-        <v>238.6780311009465</v>
+        <v>207.3158823613948</v>
       </c>
       <c r="L21" t="n">
-        <v>351.5945614881183</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M21" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N21" t="n">
         <v>528.4798964831782</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L22" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M22" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N22" t="n">
         <v>133.158287785359</v>
@@ -36296,7 +36296,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P22" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36448,16 +36448,16 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N24" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O24" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P24" t="n">
-        <v>316.9982669508155</v>
+        <v>285.636118211264</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>238.6780311009465</v>
       </c>
       <c r="L27" t="n">
-        <v>382.95671022767</v>
+        <v>192.9196850695264</v>
       </c>
       <c r="M27" t="n">
         <v>499.3966822177399</v>
       </c>
       <c r="N27" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O27" t="n">
         <v>416.3693146658877</v>
@@ -36922,16 +36922,16 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N30" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O30" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P30" t="n">
-        <v>316.9982669508155</v>
+        <v>285.636118211264</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>238.6780311009465</v>
@@ -37159,7 +37159,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N33" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O33" t="n">
         <v>416.3693146658877</v>
@@ -37168,7 +37168,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>238.6780311009465</v>
@@ -37396,7 +37396,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N36" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O36" t="n">
         <v>416.3693146658877</v>
@@ -37405,7 +37405,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K38" t="n">
         <v>269.032241846492</v>
@@ -37551,7 +37551,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M38" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N38" t="n">
         <v>439.3515785419015</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>113.4554389912688</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L39" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M39" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N39" t="n">
         <v>528.4798964831782</v>
@@ -37642,7 +37642,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L40" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M40" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N40" t="n">
         <v>133.158287785359</v>
@@ -37718,7 +37718,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P40" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>277.0684912329592</v>
       </c>
       <c r="Q41" t="n">
-        <v>130.0651205780292</v>
+        <v>130.0651205780289</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>64.81443304846582</v>
       </c>
       <c r="K42" t="n">
-        <v>48.64100594280286</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L42" t="n">
         <v>382.95671022767</v>
@@ -37876,10 +37876,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P42" t="n">
-        <v>316.9982669508155</v>
+        <v>285.6361182112636</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>98.12757175471585</v>
       </c>
       <c r="K44" t="n">
-        <v>269.0322418464915</v>
+        <v>269.032241846492</v>
       </c>
       <c r="L44" t="n">
         <v>386.5629597537834</v>
@@ -38037,7 +38037,7 @@
         <v>277.0684912329592</v>
       </c>
       <c r="Q44" t="n">
-        <v>130.0651205780292</v>
+        <v>130.0651205780289</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K45" t="n">
         <v>238.6780311009466</v>
@@ -38113,10 +38113,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P45" t="n">
-        <v>316.9982669508155</v>
+        <v>285.6361182112636</v>
       </c>
       <c r="Q45" t="n">
-        <v>33.45228430891411</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
